--- a/biology/Zoologie/Bena_bicolorana/Bena_bicolorana.xlsx
+++ b/biology/Zoologie/Bena_bicolorana/Bena_bicolorana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Halias du chêne (Bena bicolorana) est une espèce de lépidoptères de la famille des Nolidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Face dorsale - Muséum de Toulouse
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Europe.
 Sa larve se nourrit sur le Chêne pédonculé (Quercus robur).
@@ -578,18 +594,89 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Bena bicolorana a été décrite par l'entomologiste suisse Johann Kaspar Füssli en 1775, sous le nom initial de Phalaena bicolorana.
-Synonymie
-Phalaena bicolorana Füssli, 1775 protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bena_bicolorana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bena_bicolorana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phalaena bicolorana Füssli, 1775 protonyme
 Tortrix quercana Denis &amp; Schiffermüller, 1775
 Bena prasinana (Linné, 1758)
 Hylophila prasinana var. millierei Capronnier, 1883
 Hylophilina bicolorana conspersa Warren, 1913
-Hylophila prasinana var. hispanica Fernandez, 1931
-Nom vernaculaire
-la Halias du chêne
+Hylophila prasinana var. hispanica Fernandez, 1931</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bena_bicolorana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bena_bicolorana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">la Halias du chêne
 Sur les autres projets Wikimedia :
 Bena bicolorana, sur Wikimedia Commons
 </t>
